--- a/Formatted_Excel_Files/9. State of the Tropics_The Ecosystem_Biodiversity_Primary forest.xlsx
+++ b/Formatted_Excel_Files/9. State of the Tropics_The Ecosystem_Biodiversity_Primary forest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="17520" windowHeight="13200" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="17520" windowHeight="13200" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tropics (2)" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="240">
   <si>
     <t>Major area, region, country or area</t>
   </si>
@@ -49924,7 +49924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -62802,10 +62802,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62831,58 +62831,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1990</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2005</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2010</v>
       </c>
       <c r="D5">
-        <v>463415.25199999998</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -62890,13 +62890,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1990</v>
       </c>
       <c r="D6">
-        <v>1862</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -62904,13 +62904,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2000</v>
       </c>
       <c r="D7">
-        <v>1862</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -62918,13 +62918,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>2005</v>
       </c>
       <c r="D8">
-        <v>1862</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -62932,13 +62932,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2010</v>
       </c>
       <c r="D9">
-        <v>1862</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -62946,13 +62946,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1990</v>
       </c>
       <c r="D10">
-        <v>1263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -62960,13 +62960,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2000</v>
       </c>
       <c r="D11">
-        <v>1263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -62974,13 +62974,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>2005</v>
       </c>
       <c r="D12">
-        <v>1263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -62988,13 +62988,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2010</v>
       </c>
       <c r="D13">
-        <v>1263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -63002,13 +63002,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1990</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -63016,13 +63016,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>2000</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -63030,13 +63030,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>2005</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -63044,13 +63044,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>2010</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -63058,13 +63058,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>1990</v>
       </c>
       <c r="D18">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -63072,13 +63072,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2000</v>
       </c>
       <c r="D19">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -63086,13 +63086,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2005</v>
       </c>
       <c r="D20">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -63100,13 +63100,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -63114,13 +63114,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>1990</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -63128,13 +63128,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>2000</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -63142,13 +63142,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>2005</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -63156,13 +63156,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>2010</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -63170,13 +63170,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>1990</v>
       </c>
       <c r="D26">
-        <v>2251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -63184,13 +63184,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>2000</v>
       </c>
       <c r="D27">
-        <v>2958</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -63198,13 +63198,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2005</v>
       </c>
       <c r="D28">
-        <v>4281</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -63212,13 +63212,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>2010</v>
       </c>
       <c r="D29">
-        <v>3336</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -63226,13 +63226,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>1990</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -63240,13 +63240,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>2000</v>
       </c>
       <c r="D31">
-        <v>9.3800000000000008</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -63254,13 +63254,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>2005</v>
       </c>
       <c r="D32">
-        <v>9.3800000000000008</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -63268,13 +63268,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>2010</v>
       </c>
       <c r="D33">
-        <v>9.3800000000000008</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -63282,13 +63282,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>1990</v>
       </c>
       <c r="D34">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -63296,13 +63296,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>2000</v>
       </c>
       <c r="D35">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -63310,13 +63310,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>2005</v>
       </c>
       <c r="D36">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -63324,13 +63324,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>2010</v>
       </c>
       <c r="D37">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -63338,13 +63338,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -63352,13 +63352,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>26314</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -63366,13 +63366,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>26314</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -63380,13 +63380,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -63394,13 +63394,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>2000</v>
       </c>
       <c r="D42">
-        <v>19600</v>
+        <v>994</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -63408,13 +63408,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>2005</v>
       </c>
       <c r="D43">
-        <v>26314</v>
+        <v>990</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -63422,13 +63422,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>2010</v>
       </c>
       <c r="D44">
-        <v>26314</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -63436,13 +63436,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>1990</v>
       </c>
       <c r="D45">
-        <v>1001</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -63450,13 +63450,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>2000</v>
       </c>
       <c r="D46">
-        <v>994</v>
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -63464,13 +63464,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>2005</v>
       </c>
       <c r="D47">
-        <v>990</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -63478,13 +63478,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>2010</v>
       </c>
       <c r="D48">
-        <v>986</v>
+        <v>808</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -63492,13 +63492,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D49">
-        <v>808</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -63506,13 +63506,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D50">
-        <v>808</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -63520,13 +63520,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D51">
-        <v>808</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -63534,13 +63534,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D52">
-        <v>808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -63548,13 +63548,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>2000</v>
       </c>
       <c r="D53">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -63562,13 +63562,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>2005</v>
       </c>
       <c r="D54">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -63576,13 +63576,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>2010</v>
       </c>
       <c r="D55">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -63590,13 +63590,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56">
         <v>1990</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -63604,13 +63604,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>2000</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -63618,13 +63618,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>2005</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -63632,13 +63632,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>2010</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -63646,13 +63646,13 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>1990</v>
       </c>
       <c r="D60">
-        <v>2902</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -63660,13 +63660,13 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>2000</v>
       </c>
       <c r="D61">
-        <v>2902</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -63674,13 +63674,13 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>2005</v>
       </c>
       <c r="D62">
-        <v>3007</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -63688,13 +63688,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>2010</v>
       </c>
       <c r="D63">
-        <v>4000</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -63702,13 +63702,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64">
         <v>1990</v>
       </c>
       <c r="D64">
-        <v>35.799999999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -63716,13 +63716,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>2000</v>
       </c>
       <c r="D65">
-        <v>35.799999999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -63730,13 +63730,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>2005</v>
       </c>
       <c r="D66">
-        <v>41.8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -63744,7 +63744,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <v>2010</v>
@@ -63758,13 +63758,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>1990</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -63772,13 +63772,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>2000</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -63786,13 +63786,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>2005</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -63800,13 +63800,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>2010</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -63814,13 +63814,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>1990</v>
       </c>
       <c r="D72">
-        <v>3006</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -63828,13 +63828,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>2000</v>
       </c>
       <c r="D73">
-        <v>3006</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -63842,13 +63842,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>2005</v>
       </c>
       <c r="D74">
-        <v>3006</v>
+        <v>940</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -63856,13 +63856,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>2010</v>
       </c>
       <c r="D75">
-        <v>3006</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -63870,13 +63870,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>1990</v>
       </c>
       <c r="D76">
-        <v>463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -63884,13 +63884,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>2000</v>
       </c>
       <c r="D77">
-        <v>756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -63898,13 +63898,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>2005</v>
       </c>
       <c r="D78">
-        <v>940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -63912,13 +63912,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>2010</v>
       </c>
       <c r="D79">
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -63926,13 +63926,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>1990</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -63940,13 +63940,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81">
         <v>2000</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -63954,13 +63954,13 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>2005</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -63968,13 +63968,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>2010</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -63982,13 +63982,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>1990</v>
       </c>
       <c r="D84">
-        <v>175</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -63996,13 +63996,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>2000</v>
       </c>
       <c r="D85">
-        <v>175</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -64010,13 +64010,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>2005</v>
       </c>
       <c r="D86">
-        <v>194</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -64024,13 +64024,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>2010</v>
       </c>
       <c r="D87">
-        <v>194</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -64038,13 +64038,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88">
         <v>1990</v>
       </c>
       <c r="D88">
-        <v>1700</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -64052,13 +64052,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89">
         <v>2000</v>
       </c>
       <c r="D89">
-        <v>3000</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -64066,13 +64066,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>2005</v>
       </c>
       <c r="D90">
-        <v>4752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -64080,13 +64080,13 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C91">
         <v>2010</v>
       </c>
       <c r="D91">
-        <v>4752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -64094,13 +64094,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C92">
         <v>1990</v>
       </c>
       <c r="D92">
-        <v>757</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -64108,13 +64108,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>2000</v>
       </c>
       <c r="D93">
-        <v>757</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -64122,13 +64122,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>2005</v>
       </c>
       <c r="D94">
-        <v>757</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -64136,13 +64136,13 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C95">
         <v>2010</v>
       </c>
       <c r="D95">
-        <v>757</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -64150,13 +64150,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>1990</v>
       </c>
       <c r="D96">
-        <v>8.1</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -64164,13 +64164,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97">
         <v>2000</v>
       </c>
       <c r="D97">
-        <v>8.1</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -64178,13 +64178,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98">
         <v>2005</v>
       </c>
       <c r="D98">
-        <v>6.6</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -64192,13 +64192,13 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C99">
         <v>2010</v>
       </c>
       <c r="D99">
-        <v>6.6</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -64206,13 +64206,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100">
         <v>1990</v>
       </c>
       <c r="D100">
-        <v>4605</v>
+        <v>689</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -64220,13 +64220,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101">
         <v>2000</v>
       </c>
       <c r="D101">
-        <v>4373</v>
+        <v>689</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -64234,13 +64234,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C102">
         <v>2005</v>
       </c>
       <c r="D102">
-        <v>4255</v>
+        <v>689</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -64248,13 +64248,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C103">
         <v>2010</v>
       </c>
       <c r="D103">
-        <v>4143</v>
+        <v>689</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -64262,13 +64262,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C104">
         <v>1990</v>
       </c>
       <c r="D104">
-        <v>689</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -64276,13 +64276,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C105">
         <v>2000</v>
       </c>
       <c r="D105">
-        <v>689</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -64290,13 +64290,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C106">
         <v>2005</v>
       </c>
       <c r="D106">
-        <v>689</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -64304,13 +64304,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C107">
         <v>2010</v>
       </c>
       <c r="D107">
-        <v>689</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -64318,13 +64318,13 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C108">
         <v>1990</v>
       </c>
       <c r="D108">
-        <v>2509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -64332,13 +64332,13 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C109">
         <v>2000</v>
       </c>
       <c r="D109">
-        <v>2509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -64346,13 +64346,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C110">
         <v>2005</v>
       </c>
       <c r="D110">
-        <v>2509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -64360,13 +64360,13 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C111">
         <v>2010</v>
       </c>
       <c r="D111">
-        <v>2509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -64374,13 +64374,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C112">
         <v>1990</v>
       </c>
-      <c r="D112">
-        <v>0</v>
+      <c r="D112" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -64388,13 +64388,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C113">
         <v>2000</v>
       </c>
-      <c r="D113">
-        <v>0</v>
+      <c r="D113" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -64402,13 +64402,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C114">
         <v>2005</v>
       </c>
-      <c r="D114">
-        <v>0</v>
+      <c r="D114" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -64416,13 +64416,13 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C115">
         <v>2010</v>
       </c>
-      <c r="D115">
-        <v>0</v>
+      <c r="D115" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -64430,13 +64430,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C116">
         <v>1990</v>
       </c>
-      <c r="D116" t="s">
-        <v>226</v>
+      <c r="D116">
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -64444,13 +64444,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C117">
         <v>2000</v>
       </c>
-      <c r="D117" t="s">
-        <v>226</v>
+      <c r="D117">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -64458,13 +64458,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C118">
         <v>2005</v>
       </c>
-      <c r="D118" t="s">
-        <v>226</v>
+      <c r="D118">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -64472,13 +64472,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C119">
         <v>2010</v>
       </c>
-      <c r="D119" t="s">
-        <v>226</v>
+      <c r="D119">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -64486,13 +64486,13 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C120">
         <v>1990</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -64500,13 +64500,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121">
         <v>2000</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -64514,13 +64514,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C122">
         <v>2005</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -64528,13 +64528,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C123">
         <v>2010</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -64542,13 +64542,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C124">
         <v>1990</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -64556,13 +64556,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C125">
         <v>2000</v>
       </c>
       <c r="D125">
-        <v>112</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -64570,13 +64570,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C126">
         <v>2005</v>
       </c>
       <c r="D126">
-        <v>112</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -64584,13 +64584,13 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C127">
         <v>2010</v>
       </c>
       <c r="D127">
-        <v>187</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -64598,13 +64598,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128">
         <v>1990</v>
       </c>
       <c r="D128">
-        <v>2000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -64612,13 +64612,13 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129">
         <v>2000</v>
       </c>
       <c r="D129">
-        <v>2000</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -64626,13 +64626,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130">
         <v>2005</v>
       </c>
       <c r="D130">
-        <v>2000</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -64640,13 +64640,13 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C131">
         <v>2010</v>
       </c>
       <c r="D131">
-        <v>2000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -64654,13 +64654,13 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C132">
         <v>1990</v>
       </c>
       <c r="D132">
-        <v>110</v>
+        <v>1079.5999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -64668,13 +64668,13 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C133">
         <v>2000</v>
       </c>
       <c r="D133">
-        <v>78</v>
+        <v>1079.5999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -64682,13 +64682,13 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C134">
         <v>2005</v>
       </c>
       <c r="D134">
-        <v>62</v>
+        <v>1079.5999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -64696,13 +64696,13 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C135">
         <v>2010</v>
       </c>
       <c r="D135">
-        <v>46</v>
+        <v>1079.5999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -64710,13 +64710,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C136">
         <v>1990</v>
       </c>
-      <c r="D136">
-        <v>1079.5999999999999</v>
+      <c r="D136" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -64724,13 +64724,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137">
         <v>2000</v>
       </c>
       <c r="D137">
-        <v>1079.5999999999999</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -64738,13 +64738,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138">
         <v>2005</v>
       </c>
       <c r="D138">
-        <v>1079.5999999999999</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -64752,13 +64752,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139">
         <v>2010</v>
       </c>
       <c r="D139">
-        <v>1079.5999999999999</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -64766,13 +64766,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C140">
         <v>1990</v>
       </c>
-      <c r="D140" t="s">
-        <v>226</v>
+      <c r="D140">
+        <v>801</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -64780,13 +64780,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C141">
         <v>2000</v>
       </c>
       <c r="D141">
-        <v>10680</v>
+        <v>801</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -64794,13 +64794,13 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C142">
         <v>2005</v>
       </c>
       <c r="D142">
-        <v>10680</v>
+        <v>801</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -64808,69 +64808,69 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C143">
         <v>2010</v>
       </c>
       <c r="D143">
-        <v>10680</v>
+        <v>801</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C144">
         <v>1990</v>
       </c>
       <c r="D144">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C145">
         <v>2000</v>
       </c>
       <c r="D145">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C146">
         <v>2005</v>
       </c>
       <c r="D146">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C147">
         <v>2010</v>
       </c>
       <c r="D147">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -64878,13 +64878,13 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C148">
         <v>1990</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -64892,13 +64892,13 @@
         <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149">
         <v>2000</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -64906,13 +64906,13 @@
         <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C150">
         <v>2005</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -64920,13 +64920,13 @@
         <v>39</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C151">
         <v>2010</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -64934,13 +64934,13 @@
         <v>39</v>
       </c>
       <c r="B152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C152">
         <v>1990</v>
       </c>
-      <c r="D152">
-        <v>1142</v>
+      <c r="D152" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -64948,13 +64948,13 @@
         <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C153">
         <v>2000</v>
       </c>
       <c r="D153">
-        <v>1142</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -64962,13 +64962,13 @@
         <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C154">
         <v>2005</v>
       </c>
       <c r="D154">
-        <v>1142</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -64976,13 +64976,13 @@
         <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C155">
         <v>2010</v>
       </c>
       <c r="D155">
-        <v>1142</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -64990,13 +64990,13 @@
         <v>39</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C156">
         <v>1990</v>
       </c>
-      <c r="D156" t="s">
-        <v>226</v>
+      <c r="D156">
+        <v>4030</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -65004,13 +65004,13 @@
         <v>39</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C157">
         <v>2000</v>
       </c>
       <c r="D157">
-        <v>76.900000000000006</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -65018,13 +65018,13 @@
         <v>39</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C158">
         <v>2005</v>
       </c>
       <c r="D158">
-        <v>76.900000000000006</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -65032,13 +65032,13 @@
         <v>39</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C159">
         <v>2010</v>
       </c>
       <c r="D159">
-        <v>76.900000000000006</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -65046,13 +65046,13 @@
         <v>39</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C160">
         <v>1990</v>
       </c>
       <c r="D160">
-        <v>4030</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -65060,13 +65060,13 @@
         <v>39</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161">
         <v>2000</v>
       </c>
       <c r="D161">
-        <v>4030</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -65074,13 +65074,13 @@
         <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162">
         <v>2005</v>
       </c>
       <c r="D162">
-        <v>4030</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -65088,13 +65088,13 @@
         <v>39</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163">
         <v>2010</v>
       </c>
       <c r="D163">
-        <v>4030</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -65102,13 +65102,13 @@
         <v>39</v>
       </c>
       <c r="B164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C164">
         <v>1990</v>
       </c>
       <c r="D164">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -65116,13 +65116,13 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C165">
         <v>2000</v>
       </c>
       <c r="D165">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -65130,13 +65130,13 @@
         <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C166">
         <v>2005</v>
       </c>
       <c r="D166">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -65144,13 +65144,13 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C167">
         <v>2010</v>
       </c>
       <c r="D167">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -65158,13 +65158,13 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C168">
         <v>1990</v>
       </c>
       <c r="D168">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -65172,13 +65172,13 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C169">
         <v>2000</v>
       </c>
       <c r="D169">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -65186,13 +65186,13 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C170">
         <v>2005</v>
       </c>
       <c r="D170">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -65200,13 +65200,13 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C171">
         <v>2010</v>
       </c>
       <c r="D171">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -65214,13 +65214,13 @@
         <v>39</v>
       </c>
       <c r="B172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C172">
         <v>1990</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -65228,13 +65228,13 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C173">
         <v>2000</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -65242,13 +65242,13 @@
         <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C174">
         <v>2005</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -65256,13 +65256,13 @@
         <v>39</v>
       </c>
       <c r="B175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C175">
         <v>2010</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -65270,13 +65270,13 @@
         <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C176">
         <v>1990</v>
       </c>
       <c r="D176">
-        <v>1690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -65284,13 +65284,13 @@
         <v>39</v>
       </c>
       <c r="B177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C177">
         <v>2000</v>
       </c>
       <c r="D177">
-        <v>1609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -65298,13 +65298,13 @@
         <v>39</v>
       </c>
       <c r="B178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C178">
         <v>2005</v>
       </c>
       <c r="D178">
-        <v>1568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -65312,13 +65312,13 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C179">
         <v>2010</v>
       </c>
       <c r="D179">
-        <v>1532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -65326,13 +65326,13 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C180">
         <v>1990</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>8007.5358491864217</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -65340,13 +65340,13 @@
         <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C181">
         <v>2000</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>7389.6266523527829</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -65354,13 +65354,13 @@
         <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C182">
         <v>2005</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>7361.2595634761892</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -65368,13 +65368,13 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C183">
         <v>2010</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>7332.8924745995946</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -65382,13 +65382,13 @@
         <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C184">
         <v>1990</v>
       </c>
       <c r="D184">
-        <v>8007.5358491864217</v>
+        <v>4977.4641508135783</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -65396,13 +65396,13 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C185">
         <v>2000</v>
       </c>
       <c r="D185">
-        <v>7389.6266523527829</v>
+        <v>4593.3733476472171</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -65410,13 +65410,13 @@
         <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C186">
         <v>2005</v>
       </c>
       <c r="D186">
-        <v>7361.2595634761892</v>
+        <v>4575.7404365238108</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -65424,13 +65424,13 @@
         <v>39</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C187">
         <v>2010</v>
       </c>
       <c r="D187">
-        <v>7332.8924745995946</v>
+        <v>4558.1075254004054</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -65438,13 +65438,13 @@
         <v>39</v>
       </c>
       <c r="B188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C188">
         <v>1990</v>
       </c>
       <c r="D188">
-        <v>4977.4641508135783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -65452,13 +65452,13 @@
         <v>39</v>
       </c>
       <c r="B189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C189">
         <v>2000</v>
       </c>
       <c r="D189">
-        <v>4593.3733476472171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -65466,13 +65466,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C190">
         <v>2005</v>
       </c>
       <c r="D190">
-        <v>4575.7404365238108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -65480,69 +65480,69 @@
         <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C191">
         <v>2010</v>
       </c>
       <c r="D191">
-        <v>4558.1075254004054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C192">
         <v>1990</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>248.52043088403443</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C193">
         <v>2000</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>243.67912378889091</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C194">
         <v>2005</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>245.2928928206054</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C195">
         <v>2010</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>199.3004754167419</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -65550,13 +65550,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C196">
         <v>1990</v>
       </c>
       <c r="D196">
-        <v>248.52043088403443</v>
+        <v>7995.0089470580479</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -65564,13 +65564,13 @@
         <v>52</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C197">
         <v>2000</v>
       </c>
       <c r="D197">
-        <v>243.67912378889091</v>
+        <v>8176.3713949151725</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -65578,13 +65578,13 @@
         <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C198">
         <v>2005</v>
       </c>
       <c r="D198">
-        <v>245.2928928206054</v>
+        <v>12269.263730292927</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -65592,13 +65592,13 @@
         <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C199">
         <v>2010</v>
       </c>
       <c r="D199">
-        <v>199.3004754167419</v>
+        <v>12401.04959205762</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -65606,13 +65606,13 @@
         <v>52</v>
       </c>
       <c r="B200" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C200">
         <v>1990</v>
       </c>
       <c r="D200">
-        <v>7995.0089470580479</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -65620,13 +65620,13 @@
         <v>52</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C201">
         <v>2000</v>
       </c>
       <c r="D201">
-        <v>8176.3713949151725</v>
+        <v>557</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -65634,13 +65634,13 @@
         <v>52</v>
       </c>
       <c r="B202" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C202">
         <v>2005</v>
       </c>
       <c r="D202">
-        <v>12269.263730292927</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -65648,69 +65648,69 @@
         <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C203">
         <v>2010</v>
       </c>
       <c r="D203">
-        <v>12401.04959205762</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B204" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C204">
         <v>1990</v>
       </c>
       <c r="D204">
-        <v>553</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B205" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C205">
         <v>2000</v>
       </c>
       <c r="D205">
-        <v>557</v>
+        <v>81</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B206" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C206">
         <v>2005</v>
       </c>
       <c r="D206">
-        <v>558</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B207" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C207">
         <v>2010</v>
       </c>
       <c r="D207">
-        <v>558</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -65718,13 +65718,13 @@
         <v>57</v>
       </c>
       <c r="B208" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C208">
         <v>1990</v>
       </c>
       <c r="D208">
-        <v>75</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -65732,13 +65732,13 @@
         <v>57</v>
       </c>
       <c r="B209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C209">
         <v>2000</v>
       </c>
       <c r="D209">
-        <v>81</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -65746,13 +65746,13 @@
         <v>57</v>
       </c>
       <c r="B210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C210">
         <v>2005</v>
       </c>
       <c r="D210">
-        <v>81</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -65760,13 +65760,13 @@
         <v>57</v>
       </c>
       <c r="B211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C211">
         <v>2010</v>
       </c>
       <c r="D211">
-        <v>81</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -65774,13 +65774,13 @@
         <v>57</v>
       </c>
       <c r="B212" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C212">
         <v>1990</v>
       </c>
       <c r="D212">
-        <v>2776</v>
+        <v>257.93063033496355</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -65788,13 +65788,13 @@
         <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C213">
         <v>2000</v>
       </c>
       <c r="D213">
-        <v>3381</v>
+        <v>371.09092669317113</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -65802,13 +65802,13 @@
         <v>57</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C214">
         <v>2005</v>
       </c>
       <c r="D214">
-        <v>3683</v>
+        <v>648.57317525369342</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -65816,13 +65816,13 @@
         <v>57</v>
       </c>
       <c r="B215" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C215">
         <v>2010</v>
       </c>
       <c r="D215">
-        <v>3985</v>
+        <v>771.32303358606737</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -65830,13 +65830,13 @@
         <v>57</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C216">
         <v>1990</v>
       </c>
       <c r="D216">
-        <v>257.93063033496355</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -65844,13 +65844,13 @@
         <v>57</v>
       </c>
       <c r="B217" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C217">
         <v>2000</v>
       </c>
       <c r="D217">
-        <v>371.09092669317113</v>
+        <v>15324</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -65858,13 +65858,13 @@
         <v>57</v>
       </c>
       <c r="B218" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C218">
         <v>2005</v>
       </c>
       <c r="D218">
-        <v>648.57317525369342</v>
+        <v>15228</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -65872,13 +65872,13 @@
         <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C219">
         <v>2010</v>
       </c>
       <c r="D219">
-        <v>771.32303358606737</v>
+        <v>15144</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -65886,13 +65886,13 @@
         <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C220">
         <v>1990</v>
       </c>
       <c r="D220">
-        <v>16415</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -65900,13 +65900,13 @@
         <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C221">
         <v>2000</v>
       </c>
       <c r="D221">
-        <v>15324</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -65914,13 +65914,13 @@
         <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C222">
         <v>2005</v>
       </c>
       <c r="D222">
-        <v>15228</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -65928,13 +65928,13 @@
         <v>57</v>
       </c>
       <c r="B223" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C223">
         <v>2010</v>
       </c>
       <c r="D223">
-        <v>15144</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -65942,13 +65942,13 @@
         <v>57</v>
       </c>
       <c r="B224" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C224">
         <v>1990</v>
       </c>
       <c r="D224">
-        <v>2500</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -65956,13 +65956,13 @@
         <v>57</v>
       </c>
       <c r="B225" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C225">
         <v>2000</v>
       </c>
       <c r="D225">
-        <v>2815</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -65970,13 +65970,13 @@
         <v>57</v>
       </c>
       <c r="B226" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C226">
         <v>2005</v>
       </c>
       <c r="D226">
-        <v>3043</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -65984,13 +65984,13 @@
         <v>57</v>
       </c>
       <c r="B227" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C227">
         <v>2010</v>
       </c>
       <c r="D227">
-        <v>3043</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -65998,13 +65998,13 @@
         <v>57</v>
       </c>
       <c r="B228" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C228">
         <v>1990</v>
       </c>
       <c r="D228">
-        <v>1120</v>
+        <v>720</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -66012,13 +66012,13 @@
         <v>57</v>
       </c>
       <c r="B229" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C229">
         <v>2000</v>
       </c>
       <c r="D229">
-        <v>1120</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -66026,13 +66026,13 @@
         <v>57</v>
       </c>
       <c r="B230" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C230">
         <v>2005</v>
       </c>
       <c r="D230">
-        <v>1120</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -66040,13 +66040,13 @@
         <v>57</v>
       </c>
       <c r="B231" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C231">
         <v>2010</v>
       </c>
       <c r="D231">
-        <v>1946</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -66054,13 +66054,13 @@
         <v>57</v>
       </c>
       <c r="B232" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C232">
         <v>1990</v>
       </c>
       <c r="D232">
-        <v>720</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -66068,13 +66068,13 @@
         <v>57</v>
       </c>
       <c r="B233" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C233">
         <v>2000</v>
       </c>
       <c r="D233">
-        <v>1220</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -66082,13 +66082,13 @@
         <v>57</v>
       </c>
       <c r="B234" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C234">
         <v>2005</v>
       </c>
       <c r="D234">
-        <v>4901</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -66096,13 +66096,13 @@
         <v>57</v>
       </c>
       <c r="B235" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C235">
         <v>2010</v>
       </c>
       <c r="D235">
-        <v>2081</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -66110,13 +66110,13 @@
         <v>57</v>
       </c>
       <c r="B236" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C236">
         <v>1990</v>
       </c>
       <c r="D236">
-        <v>1108</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -66124,13 +66124,13 @@
         <v>57</v>
       </c>
       <c r="B237" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C237">
         <v>2000</v>
       </c>
       <c r="D237">
-        <v>1153</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -66138,13 +66138,13 @@
         <v>57</v>
       </c>
       <c r="B238" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C238">
         <v>2005</v>
       </c>
       <c r="D238">
-        <v>1173</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -66152,13 +66152,13 @@
         <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C239">
         <v>2010</v>
       </c>
       <c r="D239">
-        <v>1191</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -66166,13 +66166,13 @@
         <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C240">
         <v>1990</v>
       </c>
       <c r="D240">
-        <v>2.2999999999999998</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -66180,13 +66180,13 @@
         <v>57</v>
       </c>
       <c r="B241" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C241">
         <v>2000</v>
       </c>
       <c r="D241">
-        <v>2.2999999999999998</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -66194,13 +66194,13 @@
         <v>57</v>
       </c>
       <c r="B242" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C242">
         <v>2005</v>
       </c>
       <c r="D242">
-        <v>2.2999999999999998</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -66208,13 +66208,13 @@
         <v>57</v>
       </c>
       <c r="B243" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C243">
         <v>2010</v>
       </c>
       <c r="D243">
-        <v>2.2999999999999998</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -66222,13 +66222,13 @@
         <v>57</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C244">
         <v>1990</v>
       </c>
       <c r="D244">
-        <v>6726</v>
+        <v>102</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -66236,13 +66236,13 @@
         <v>57</v>
       </c>
       <c r="B245" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C245">
         <v>2000</v>
       </c>
       <c r="D245">
-        <v>8707</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>57</v>
       </c>
       <c r="B246" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C246">
         <v>2005</v>
       </c>
       <c r="D246">
-        <v>8853</v>
+        <v>187</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -66264,13 +66264,13 @@
         <v>57</v>
       </c>
       <c r="B247" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C247">
         <v>2010</v>
       </c>
       <c r="D247">
-        <v>8853</v>
+        <v>187</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -66278,13 +66278,13 @@
         <v>57</v>
       </c>
       <c r="B248" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C248">
         <v>1990</v>
       </c>
       <c r="D248">
-        <v>102</v>
+        <v>731</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -66292,13 +66292,13 @@
         <v>57</v>
       </c>
       <c r="B249" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C249">
         <v>2000</v>
       </c>
       <c r="D249">
-        <v>102</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -66306,13 +66306,13 @@
         <v>57</v>
       </c>
       <c r="B250" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C250">
         <v>2005</v>
       </c>
       <c r="D250">
-        <v>187</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -66320,69 +66320,69 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C251">
         <v>2010</v>
       </c>
       <c r="D251">
-        <v>187</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B252" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C252">
         <v>1990</v>
       </c>
       <c r="D252">
-        <v>731</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B253" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C253">
         <v>2000</v>
       </c>
       <c r="D253">
-        <v>1570</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B254" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C254">
         <v>2005</v>
       </c>
       <c r="D254">
-        <v>1959</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B255" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C255">
         <v>2010</v>
       </c>
       <c r="D255">
-        <v>2142</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -66390,13 +66390,13 @@
         <v>72</v>
       </c>
       <c r="B256" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C256">
         <v>1990</v>
       </c>
       <c r="D256">
-        <v>0.3</v>
+        <v>515</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -66404,13 +66404,13 @@
         <v>72</v>
       </c>
       <c r="B257" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C257">
         <v>2000</v>
       </c>
       <c r="D257">
-        <v>0.3</v>
+        <v>570</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -66418,13 +66418,13 @@
         <v>72</v>
       </c>
       <c r="B258" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C258">
         <v>2005</v>
       </c>
       <c r="D258">
-        <v>0.3</v>
+        <v>595</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -66432,13 +66432,13 @@
         <v>72</v>
       </c>
       <c r="B259" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C259">
         <v>2010</v>
       </c>
       <c r="D259">
-        <v>0.3</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -66446,13 +66446,13 @@
         <v>72</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C260">
         <v>1990</v>
       </c>
       <c r="D260">
-        <v>515</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -66460,13 +66460,13 @@
         <v>72</v>
       </c>
       <c r="B261" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C261">
         <v>2000</v>
       </c>
       <c r="D261">
-        <v>570</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -66474,13 +66474,13 @@
         <v>72</v>
       </c>
       <c r="B262" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C262">
         <v>2005</v>
       </c>
       <c r="D262">
-        <v>595</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -66488,13 +66488,13 @@
         <v>72</v>
       </c>
       <c r="B263" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C263">
         <v>2010</v>
       </c>
       <c r="D263">
-        <v>611</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -66502,13 +66502,13 @@
         <v>72</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C264">
         <v>1990</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -66516,13 +66516,13 @@
         <v>72</v>
       </c>
       <c r="B265" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C265">
         <v>2000</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -66530,13 +66530,13 @@
         <v>72</v>
       </c>
       <c r="B266" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C266">
         <v>2005</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -66544,13 +66544,13 @@
         <v>72</v>
       </c>
       <c r="B267" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C267">
         <v>2010</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -66558,13 +66558,13 @@
         <v>72</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C268">
         <v>1990</v>
       </c>
       <c r="D268">
-        <v>73.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -66572,13 +66572,13 @@
         <v>72</v>
       </c>
       <c r="B269" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C269">
         <v>2000</v>
       </c>
       <c r="D269">
-        <v>72.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -66586,13 +66586,13 @@
         <v>72</v>
       </c>
       <c r="B270" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C270">
         <v>2005</v>
       </c>
       <c r="D270">
-        <v>72.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -66600,13 +66600,13 @@
         <v>72</v>
       </c>
       <c r="B271" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C271">
         <v>2010</v>
       </c>
       <c r="D271">
-        <v>71.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -66614,13 +66614,13 @@
         <v>72</v>
       </c>
       <c r="B272" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C272">
         <v>1990</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -66628,13 +66628,13 @@
         <v>72</v>
       </c>
       <c r="B273" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C273">
         <v>2000</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -66642,13 +66642,13 @@
         <v>72</v>
       </c>
       <c r="B274" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C274">
         <v>2005</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -66656,13 +66656,13 @@
         <v>72</v>
       </c>
       <c r="B275" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C275">
         <v>2010</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -66670,13 +66670,13 @@
         <v>72</v>
       </c>
       <c r="B276" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C276">
         <v>1990</v>
       </c>
       <c r="D276">
-        <v>2.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -66684,13 +66684,13 @@
         <v>72</v>
       </c>
       <c r="B277" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C277">
         <v>2000</v>
       </c>
       <c r="D277">
-        <v>2.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -66698,13 +66698,13 @@
         <v>72</v>
       </c>
       <c r="B278" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C278">
         <v>2005</v>
       </c>
       <c r="D278">
-        <v>2.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -66712,69 +66712,69 @@
         <v>72</v>
       </c>
       <c r="B279" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C279">
         <v>2010</v>
       </c>
       <c r="D279">
-        <v>2.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B280" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C280">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="D280">
-        <v>19.5</v>
+        <v>599</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B281" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C281">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D281">
-        <v>19.5</v>
+        <v>595</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B282" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C282">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D282">
-        <v>19.5</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B283" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C283">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D283">
-        <v>19.5</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -66782,13 +66782,13 @@
         <v>85</v>
       </c>
       <c r="B284" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C284">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D284">
-        <v>599</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -66796,13 +66796,13 @@
         <v>85</v>
       </c>
       <c r="B285" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C285">
         <v>2005</v>
       </c>
       <c r="D285">
-        <v>595</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -66810,13 +66810,13 @@
         <v>85</v>
       </c>
       <c r="B286" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C286">
         <v>2010</v>
       </c>
       <c r="D286">
-        <v>623</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -66824,13 +66824,13 @@
         <v>85</v>
       </c>
       <c r="B287" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C287">
         <v>1990</v>
       </c>
       <c r="D287">
-        <v>32.1</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -66838,13 +66838,13 @@
         <v>85</v>
       </c>
       <c r="B288" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C288">
         <v>2000</v>
       </c>
       <c r="D288">
-        <v>32.1</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -66852,13 +66852,13 @@
         <v>85</v>
       </c>
       <c r="B289" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C289">
         <v>2005</v>
       </c>
       <c r="D289">
-        <v>32.1</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -66866,13 +66866,13 @@
         <v>85</v>
       </c>
       <c r="B290" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C290">
         <v>2010</v>
       </c>
       <c r="D290">
-        <v>32.1</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -66880,13 +66880,13 @@
         <v>85</v>
       </c>
       <c r="B291" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C291">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="D291">
-        <v>2959</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -66894,13 +66894,13 @@
         <v>85</v>
       </c>
       <c r="B292" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C292">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D292">
-        <v>2622</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -66908,13 +66908,13 @@
         <v>85</v>
       </c>
       <c r="B293" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C293">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D293">
-        <v>2454</v>
+        <v>2730.6838306595519</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -66922,13 +66922,13 @@
         <v>85</v>
       </c>
       <c r="B294" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C294">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D294">
-        <v>2304</v>
+        <v>2676.6346675279574</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -66936,13 +66936,13 @@
         <v>85</v>
       </c>
       <c r="B295" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C295">
         <v>2005</v>
       </c>
       <c r="D295">
-        <v>2275</v>
+        <v>3577.4540530545305</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -66950,13 +66950,13 @@
         <v>85</v>
       </c>
       <c r="B296" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C296">
         <v>2010</v>
       </c>
       <c r="D296">
-        <v>2275</v>
+        <v>5097.4366295663676</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -66964,13 +66964,13 @@
         <v>85</v>
       </c>
       <c r="B297" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C297">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="D297">
-        <v>2730.6838306595519</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -66978,13 +66978,13 @@
         <v>85</v>
       </c>
       <c r="B298" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C298">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D298">
-        <v>2676.6346675279574</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -66992,13 +66992,13 @@
         <v>85</v>
       </c>
       <c r="B299" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C299">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D299">
-        <v>3577.4540530545305</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -67006,13 +67006,13 @@
         <v>85</v>
       </c>
       <c r="B300" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C300">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D300">
-        <v>5097.4366295663676</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -67020,13 +67020,13 @@
         <v>85</v>
       </c>
       <c r="B301" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C301">
         <v>2005</v>
       </c>
       <c r="D301">
-        <v>2029</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -67034,69 +67034,69 @@
         <v>85</v>
       </c>
       <c r="B302" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C302">
         <v>2010</v>
       </c>
       <c r="D302">
-        <v>2029</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B303" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C303">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D303">
-        <v>1346</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C304">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D304">
-        <v>1369</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B305" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C305">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D305">
-        <v>1355</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B306" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C306">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D306">
-        <v>1341</v>
+        <v>19355.862863731298</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -67104,13 +67104,13 @@
         <v>94</v>
       </c>
       <c r="B307" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C307">
         <v>2000</v>
       </c>
       <c r="D307">
-        <v>10680</v>
+        <v>22155.913588977299</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -67118,13 +67118,13 @@
         <v>94</v>
       </c>
       <c r="B308" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C308">
         <v>2005</v>
       </c>
       <c r="D308">
-        <v>10680</v>
+        <v>34541.626049237144</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -67132,13 +67132,13 @@
         <v>94</v>
       </c>
       <c r="B309" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C309">
         <v>2010</v>
       </c>
       <c r="D309">
-        <v>10680</v>
+        <v>45745.56062906258</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -67146,13 +67146,13 @@
         <v>94</v>
       </c>
       <c r="B310" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C310">
         <v>1990</v>
       </c>
       <c r="D310">
-        <v>19355.862863731298</v>
+        <v>8828</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -67160,13 +67160,13 @@
         <v>94</v>
       </c>
       <c r="B311" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C311">
         <v>2000</v>
       </c>
       <c r="D311">
-        <v>22155.913588977299</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -67174,13 +67174,13 @@
         <v>94</v>
       </c>
       <c r="B312" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C312">
         <v>2005</v>
       </c>
       <c r="D312">
-        <v>34541.626049237144</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -67188,13 +67188,13 @@
         <v>94</v>
       </c>
       <c r="B313" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C313">
         <v>2010</v>
       </c>
       <c r="D313">
-        <v>45745.56062906258</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -67202,13 +67202,13 @@
         <v>94</v>
       </c>
       <c r="B314" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C314">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D314">
-        <v>8828</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -67216,13 +67216,13 @@
         <v>94</v>
       </c>
       <c r="B315" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C315">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D315">
-        <v>8685</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -67230,13 +67230,13 @@
         <v>94</v>
       </c>
       <c r="B316" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C316">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D316">
-        <v>8614</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -67244,13 +67244,13 @@
         <v>94</v>
       </c>
       <c r="B317" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C317">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D317">
-        <v>8543</v>
+        <v>151</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -67258,13 +67258,13 @@
         <v>94</v>
       </c>
       <c r="B318" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C318">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D318">
-        <v>4682</v>
+        <v>151</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -67272,13 +67272,13 @@
         <v>94</v>
       </c>
       <c r="B319" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C319">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D319">
-        <v>4743</v>
+        <v>151</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -67286,13 +67286,13 @@
         <v>94</v>
       </c>
       <c r="B320" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C320">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D320">
-        <v>4805</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -67300,13 +67300,13 @@
         <v>94</v>
       </c>
       <c r="B321" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C321">
         <v>2000</v>
       </c>
       <c r="D321">
-        <v>151</v>
+        <v>13321</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -67314,13 +67314,13 @@
         <v>94</v>
       </c>
       <c r="B322" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C322">
         <v>2005</v>
       </c>
       <c r="D322">
-        <v>151</v>
+        <v>18505</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -67328,13 +67328,13 @@
         <v>94</v>
       </c>
       <c r="B323" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C323">
         <v>2010</v>
       </c>
       <c r="D323">
-        <v>151</v>
+        <v>18505</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -67342,13 +67342,13 @@
         <v>94</v>
       </c>
       <c r="B324" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C324">
         <v>1990</v>
       </c>
       <c r="D324">
-        <v>4777</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -67356,13 +67356,13 @@
         <v>94</v>
       </c>
       <c r="B325" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C325">
         <v>2000</v>
       </c>
       <c r="D325">
-        <v>13321</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -67370,13 +67370,13 @@
         <v>94</v>
       </c>
       <c r="B326" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C326">
         <v>2005</v>
       </c>
       <c r="D326">
-        <v>18505</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -67384,13 +67384,13 @@
         <v>94</v>
       </c>
       <c r="B327" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C327">
         <v>2010</v>
       </c>
       <c r="D327">
-        <v>18505</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -67398,13 +67398,13 @@
         <v>94</v>
       </c>
       <c r="B328" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C328">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D328">
-        <v>1887</v>
+        <v>15755</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -67412,13 +67412,13 @@
         <v>94</v>
       </c>
       <c r="B329" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C329">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D329">
-        <v>1887</v>
+        <v>15755</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -67426,69 +67426,69 @@
         <v>94</v>
       </c>
       <c r="B330" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C330">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D330">
-        <v>2192</v>
+        <v>15755</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B331" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C331">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D331">
-        <v>2192</v>
+        <v>9192.32</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B332" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C332">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D332">
-        <v>15755</v>
+        <v>10663.07</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B333" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C333">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D333">
-        <v>15755</v>
+        <v>11856.630000000001</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B334" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C334">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D334">
-        <v>15755</v>
+        <v>69</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -67496,13 +67496,13 @@
         <v>103</v>
       </c>
       <c r="B335" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C335">
         <v>2000</v>
       </c>
       <c r="D335">
-        <v>9192.32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -67510,13 +67510,13 @@
         <v>103</v>
       </c>
       <c r="B336" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C336">
         <v>2005</v>
       </c>
       <c r="D336">
-        <v>10663.07</v>
+        <v>89</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -67524,13 +67524,13 @@
         <v>103</v>
       </c>
       <c r="B337" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C337">
         <v>2010</v>
       </c>
       <c r="D337">
-        <v>11856.630000000001</v>
+        <v>89</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -67538,13 +67538,13 @@
         <v>103</v>
       </c>
       <c r="B338" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C338">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D338">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -67552,13 +67552,13 @@
         <v>103</v>
       </c>
       <c r="B339" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C339">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D339">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -67566,13 +67566,13 @@
         <v>103</v>
       </c>
       <c r="B340" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C340">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D340">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -67580,13 +67580,13 @@
         <v>103</v>
       </c>
       <c r="B341" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C341">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D341">
-        <v>89</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -67594,13 +67594,13 @@
         <v>103</v>
       </c>
       <c r="B342" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C342">
         <v>2000</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -67608,13 +67608,13 @@
         <v>103</v>
       </c>
       <c r="B343" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C343">
         <v>2005</v>
       </c>
       <c r="D343">
-        <v>7</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -67622,13 +67622,13 @@
         <v>103</v>
       </c>
       <c r="B344" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C344">
         <v>2010</v>
       </c>
       <c r="D344">
-        <v>7</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -67636,13 +67636,13 @@
         <v>103</v>
       </c>
       <c r="B345" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C345">
         <v>1990</v>
       </c>
       <c r="D345">
-        <v>0.25800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -67650,13 +67650,13 @@
         <v>103</v>
       </c>
       <c r="B346" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C346">
         <v>2000</v>
       </c>
       <c r="D346">
-        <v>0.25800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -67664,13 +67664,13 @@
         <v>103</v>
       </c>
       <c r="B347" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C347">
         <v>2005</v>
       </c>
       <c r="D347">
-        <v>0.25800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -67678,13 +67678,13 @@
         <v>103</v>
       </c>
       <c r="B348" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C348">
         <v>2010</v>
       </c>
       <c r="D348">
-        <v>0.25800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -67692,7 +67692,7 @@
         <v>103</v>
       </c>
       <c r="B349" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C349">
         <v>1990</v>
@@ -67706,7 +67706,7 @@
         <v>103</v>
       </c>
       <c r="B350" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C350">
         <v>2000</v>
@@ -67720,7 +67720,7 @@
         <v>103</v>
       </c>
       <c r="B351" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C351">
         <v>2005</v>
@@ -67734,7 +67734,7 @@
         <v>103</v>
       </c>
       <c r="B352" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C352">
         <v>2010</v>
@@ -67748,13 +67748,13 @@
         <v>103</v>
       </c>
       <c r="B353" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C353">
         <v>1990</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -67762,13 +67762,13 @@
         <v>103</v>
       </c>
       <c r="B354" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C354">
         <v>2000</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>71.09</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -67776,13 +67776,13 @@
         <v>103</v>
       </c>
       <c r="B355" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C355">
         <v>2005</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>71.09</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -67790,13 +67790,13 @@
         <v>103</v>
       </c>
       <c r="B356" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C356">
         <v>2010</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -67804,13 +67804,13 @@
         <v>103</v>
       </c>
       <c r="B357" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C357">
         <v>1990</v>
       </c>
       <c r="D357">
-        <v>58.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -67818,13 +67818,13 @@
         <v>103</v>
       </c>
       <c r="B358" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C358">
         <v>2000</v>
       </c>
       <c r="D358">
-        <v>71.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -67832,13 +67832,13 @@
         <v>103</v>
       </c>
       <c r="B359" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C359">
         <v>2005</v>
       </c>
       <c r="D359">
-        <v>71.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -67846,13 +67846,13 @@
         <v>103</v>
       </c>
       <c r="B360" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C360">
         <v>2010</v>
       </c>
       <c r="D360">
-        <v>74.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -67860,13 +67860,13 @@
         <v>103</v>
       </c>
       <c r="B361" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C361">
         <v>1990</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -67874,13 +67874,13 @@
         <v>103</v>
       </c>
       <c r="B362" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C362">
         <v>2000</v>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -67888,13 +67888,13 @@
         <v>103</v>
       </c>
       <c r="B363" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C363">
         <v>2005</v>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -67902,13 +67902,13 @@
         <v>103</v>
       </c>
       <c r="B364" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C364">
         <v>2010</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -67916,13 +67916,13 @@
         <v>103</v>
       </c>
       <c r="B365" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C365">
         <v>1990</v>
       </c>
-      <c r="D365">
-        <v>409</v>
+      <c r="D365" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -67930,13 +67930,13 @@
         <v>103</v>
       </c>
       <c r="B366" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C366">
         <v>2000</v>
       </c>
       <c r="D366">
-        <v>1376</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -67944,13 +67944,13 @@
         <v>103</v>
       </c>
       <c r="B367" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C367">
         <v>2005</v>
       </c>
       <c r="D367">
-        <v>1344</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -67958,13 +67958,13 @@
         <v>103</v>
       </c>
       <c r="B368" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C368">
         <v>2010</v>
       </c>
       <c r="D368">
-        <v>1312</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -67972,13 +67972,13 @@
         <v>103</v>
       </c>
       <c r="B369" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C369">
         <v>1990</v>
       </c>
-      <c r="D369" t="s">
-        <v>226</v>
+      <c r="D369">
+        <v>491.5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -67986,13 +67986,13 @@
         <v>103</v>
       </c>
       <c r="B370" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C370">
         <v>2000</v>
       </c>
       <c r="D370">
-        <v>28.5</v>
+        <v>491.5</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -68000,13 +68000,13 @@
         <v>103</v>
       </c>
       <c r="B371" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C371">
         <v>2005</v>
       </c>
       <c r="D371">
-        <v>28.5</v>
+        <v>491.5</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -68014,13 +68014,13 @@
         <v>103</v>
       </c>
       <c r="B372" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C372">
         <v>2010</v>
       </c>
       <c r="D372">
-        <v>28.5</v>
+        <v>491.5</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -68028,13 +68028,13 @@
         <v>103</v>
       </c>
       <c r="B373" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C373">
         <v>1990</v>
       </c>
       <c r="D373">
-        <v>491.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -68042,13 +68042,13 @@
         <v>103</v>
       </c>
       <c r="B374" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C374">
         <v>2000</v>
       </c>
       <c r="D374">
-        <v>491.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -68056,13 +68056,13 @@
         <v>103</v>
       </c>
       <c r="B375" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C375">
         <v>2005</v>
       </c>
       <c r="D375">
-        <v>491.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -68070,13 +68070,13 @@
         <v>103</v>
       </c>
       <c r="B376" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C376">
         <v>2010</v>
       </c>
       <c r="D376">
-        <v>491.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -68084,13 +68084,13 @@
         <v>103</v>
       </c>
       <c r="B377" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C377">
         <v>1990</v>
       </c>
       <c r="D377">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -68098,13 +68098,13 @@
         <v>103</v>
       </c>
       <c r="B378" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C378">
         <v>2000</v>
       </c>
       <c r="D378">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -68112,13 +68112,13 @@
         <v>103</v>
       </c>
       <c r="B379" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C379">
         <v>2005</v>
       </c>
       <c r="D379">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -68126,13 +68126,13 @@
         <v>103</v>
       </c>
       <c r="B380" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C380">
         <v>2010</v>
       </c>
       <c r="D380">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -68140,13 +68140,13 @@
         <v>103</v>
       </c>
       <c r="B381" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C381">
         <v>1990</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>73.737006572413165</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -68154,13 +68154,13 @@
         <v>103</v>
       </c>
       <c r="B382" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C382">
         <v>2000</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>76.790591097232436</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -68168,13 +68168,13 @@
         <v>103</v>
       </c>
       <c r="B383" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C383">
         <v>2005</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>78.051854270527357</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -68182,68 +68182,12 @@
         <v>103</v>
       </c>
       <c r="B384" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C384">
         <v>2010</v>
       </c>
       <c r="D384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>103</v>
-      </c>
-      <c r="B385" t="s">
-        <v>117</v>
-      </c>
-      <c r="C385">
-        <v>1990</v>
-      </c>
-      <c r="D385">
-        <v>73.737006572413165</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>103</v>
-      </c>
-      <c r="B386" t="s">
-        <v>117</v>
-      </c>
-      <c r="C386">
-        <v>2000</v>
-      </c>
-      <c r="D386">
-        <v>76.790591097232436</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>103</v>
-      </c>
-      <c r="B387" t="s">
-        <v>117</v>
-      </c>
-      <c r="C387">
-        <v>2005</v>
-      </c>
-      <c r="D387">
-        <v>78.051854270527357</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>103</v>
-      </c>
-      <c r="B388" t="s">
-        <v>117</v>
-      </c>
-      <c r="C388">
-        <v>2010</v>
-      </c>
-      <c r="D388">
         <v>79.318385878130115</v>
       </c>
     </row>

--- a/Formatted_Excel_Files/9. State of the Tropics_The Ecosystem_Biodiversity_Primary forest.xlsx
+++ b/Formatted_Excel_Files/9. State of the Tropics_The Ecosystem_Biodiversity_Primary forest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="17520" windowHeight="13200" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="17520" windowHeight="13200" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tropics (2)" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="240">
   <si>
     <t>Major area, region, country or area</t>
   </si>
@@ -51379,10 +51379,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51409,10 +51409,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1990</v>
@@ -51423,10 +51423,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -51437,10 +51437,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2005</v>
@@ -51451,10 +51451,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2010</v>
@@ -51468,7 +51468,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1990</v>
@@ -51482,7 +51482,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -51496,7 +51496,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>2005</v>
@@ -51510,7 +51510,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -51524,7 +51524,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1990</v>
@@ -51538,7 +51538,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -51552,7 +51552,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>2005</v>
@@ -51566,7 +51566,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2010</v>
@@ -51580,7 +51580,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1990</v>
@@ -51594,7 +51594,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>2000</v>
@@ -51608,7 +51608,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>2005</v>
@@ -51622,7 +51622,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>2010</v>
@@ -51636,13 +51636,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>1990</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -51650,13 +51650,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2000</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -51664,13 +51664,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2005</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -51678,13 +51678,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -51692,13 +51692,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>1990</v>
       </c>
       <c r="D22">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -51706,13 +51706,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>2000</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -51720,13 +51720,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>2005</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -51734,13 +51734,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2010</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -51748,13 +51748,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>1990</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -51762,13 +51762,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2000</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -51776,13 +51776,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>2005</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -51790,13 +51790,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>2010</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -51804,13 +51804,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>1990</v>
       </c>
       <c r="D30">
-        <v>3900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -51818,13 +51818,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>2000</v>
       </c>
       <c r="D31">
-        <v>3135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -51832,13 +51832,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>2005</v>
       </c>
       <c r="D32">
-        <v>2752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -51846,13 +51846,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>2010</v>
       </c>
       <c r="D33">
-        <v>2370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -51860,13 +51860,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>1990</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -51874,13 +51874,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>2000</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -51888,13 +51888,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>2005</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -51902,13 +51902,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>2010</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -51916,13 +51916,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>1990</v>
       </c>
       <c r="D38">
-        <v>7548</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -51930,13 +51930,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>2000</v>
       </c>
       <c r="D39">
-        <v>7492</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -51944,13 +51944,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>2005</v>
       </c>
       <c r="D40">
-        <v>7464</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -51958,13 +51958,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>2010</v>
       </c>
       <c r="D41">
-        <v>7436</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -51972,13 +51972,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>1990</v>
       </c>
       <c r="D42">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -51986,13 +51986,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>2000</v>
       </c>
       <c r="D43">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -52000,13 +52000,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>2005</v>
       </c>
       <c r="D44">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -52014,13 +52014,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>2010</v>
       </c>
       <c r="D45">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -52028,7 +52028,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>1990</v>
@@ -52042,7 +52042,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>2000</v>
@@ -52056,7 +52056,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>2005</v>
@@ -52070,7 +52070,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>2010</v>
@@ -52084,13 +52084,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>1990</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>20934</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -52098,13 +52098,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>2000</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>17634</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -52112,13 +52112,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>2005</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>15984</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -52126,13 +52126,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53">
         <v>2010</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>14334</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -52140,13 +52140,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>1990</v>
       </c>
       <c r="D54">
-        <v>20934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -52154,13 +52154,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>2000</v>
       </c>
       <c r="D55">
-        <v>17634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -52168,13 +52168,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>2005</v>
       </c>
       <c r="D56">
-        <v>15984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -52182,13 +52182,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>2010</v>
       </c>
       <c r="D57">
-        <v>14334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -52196,13 +52196,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58">
         <v>1990</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -52210,13 +52210,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>2000</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -52224,13 +52224,13 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>2005</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -52238,13 +52238,13 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>2010</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -52252,13 +52252,13 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>1990</v>
       </c>
       <c r="D62">
-        <v>395</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -52266,13 +52266,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>2000</v>
       </c>
       <c r="D63">
-        <v>395</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -52280,13 +52280,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>2005</v>
       </c>
       <c r="D64">
-        <v>395</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -52294,13 +52294,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>2010</v>
       </c>
       <c r="D65">
-        <v>395</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -52308,13 +52308,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>1990</v>
       </c>
       <c r="D66">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -52322,13 +52322,13 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>2000</v>
       </c>
       <c r="D67">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -52336,13 +52336,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>2005</v>
       </c>
       <c r="D68">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -52350,13 +52350,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>2010</v>
       </c>
       <c r="D69">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -52364,13 +52364,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>1990</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -52378,13 +52378,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>2000</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -52392,13 +52392,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>2005</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -52406,13 +52406,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>2010</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -52420,13 +52420,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74">
         <v>1990</v>
       </c>
       <c r="D74">
-        <v>694</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -52434,13 +52434,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>2000</v>
       </c>
       <c r="D75">
-        <v>674</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -52448,13 +52448,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>2005</v>
       </c>
       <c r="D76">
-        <v>664</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -52462,13 +52462,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>2010</v>
       </c>
       <c r="D77">
-        <v>654</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -52476,13 +52476,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78">
         <v>1990</v>
       </c>
       <c r="D78">
-        <v>175</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -52490,13 +52490,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79">
         <v>2000</v>
       </c>
       <c r="D79">
-        <v>175</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -52504,13 +52504,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C80">
         <v>2005</v>
       </c>
       <c r="D80">
-        <v>175</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -52518,13 +52518,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C81">
         <v>2010</v>
       </c>
       <c r="D81">
-        <v>175</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -52532,13 +52532,13 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C82">
         <v>1990</v>
       </c>
       <c r="D82">
-        <v>3367</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -52546,13 +52546,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C83">
         <v>2000</v>
       </c>
       <c r="D83">
-        <v>3214</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -52560,13 +52560,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84">
         <v>2005</v>
       </c>
       <c r="D84">
-        <v>3137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -52574,13 +52574,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>2010</v>
       </c>
       <c r="D85">
-        <v>3036</v>
+        <v>934</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -52588,13 +52588,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>1990</v>
       </c>
       <c r="D86">
-        <v>1727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -52602,13 +52602,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>2000</v>
       </c>
       <c r="D87">
-        <v>1330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -52616,13 +52616,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>2005</v>
       </c>
       <c r="D88">
-        <v>1132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -52630,13 +52630,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>2010</v>
       </c>
       <c r="D89">
-        <v>934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -52644,7 +52644,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90">
         <v>1990</v>
@@ -52658,7 +52658,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C91">
         <v>2000</v>
@@ -52672,7 +52672,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>2005</v>
@@ -52686,7 +52686,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>2010</v>
@@ -52700,7 +52700,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94">
         <v>1990</v>
@@ -52714,7 +52714,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95">
         <v>2000</v>
@@ -52728,7 +52728,7 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C96">
         <v>2005</v>
@@ -52742,7 +52742,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C97">
         <v>2010</v>
@@ -52756,13 +52756,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C98">
         <v>1990</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -52770,13 +52770,13 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C99">
         <v>2000</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -52784,13 +52784,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C100">
         <v>2005</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -52798,13 +52798,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101">
         <v>2010</v>
       </c>
-      <c r="D101">
-        <v>0</v>
+      <c r="D101" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -52812,13 +52812,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C102">
         <v>1990</v>
       </c>
       <c r="D102">
-        <v>1556</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -52826,13 +52826,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C103">
         <v>2000</v>
       </c>
       <c r="D103">
-        <v>736</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -52840,13 +52840,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C104">
         <v>2005</v>
       </c>
       <c r="D104">
-        <v>326</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -52854,13 +52854,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C105">
         <v>2010</v>
       </c>
-      <c r="D105" t="s">
-        <v>227</v>
+      <c r="D105">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -52868,13 +52868,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106">
         <v>1990</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -52882,13 +52882,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C107">
         <v>2000</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -52896,13 +52896,13 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C108">
         <v>2005</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -52910,13 +52910,13 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C109">
         <v>2010</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -52924,13 +52924,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C110">
         <v>1990</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -52938,13 +52938,13 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C111">
         <v>2000</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -52952,13 +52952,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C112">
         <v>2005</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -52966,13 +52966,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113">
         <v>2010</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -52980,13 +52980,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114">
         <v>1990</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -52994,13 +52994,13 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115">
         <v>2000</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -53008,13 +53008,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116">
         <v>2005</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -53022,13 +53022,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117">
         <v>2010</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -53036,13 +53036,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <v>1990</v>
       </c>
       <c r="D118">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -53050,13 +53050,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <v>2000</v>
       </c>
       <c r="D119">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -53064,13 +53064,13 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <v>2005</v>
       </c>
       <c r="D120">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -53078,13 +53078,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C121">
         <v>2010</v>
       </c>
       <c r="D121">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -53092,7 +53092,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122">
         <v>1990</v>
@@ -53106,7 +53106,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123">
         <v>2000</v>
@@ -53120,7 +53120,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C124">
         <v>2005</v>
@@ -53134,7 +53134,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125">
         <v>2010</v>
@@ -53148,7 +53148,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C126">
         <v>1990</v>
@@ -53162,7 +53162,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C127">
         <v>2000</v>
@@ -53176,7 +53176,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C128">
         <v>2005</v>
@@ -53190,7 +53190,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C129">
         <v>2010</v>
@@ -53204,7 +53204,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C130">
         <v>1990</v>
@@ -53218,7 +53218,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C131">
         <v>2000</v>
@@ -53232,7 +53232,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C132">
         <v>2005</v>
@@ -53246,7 +53246,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C133">
         <v>2010</v>
@@ -53260,13 +53260,13 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C134">
         <v>1990</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -53274,13 +53274,13 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C135">
         <v>2000</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -53288,13 +53288,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C136">
         <v>2005</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -53302,69 +53302,69 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C137">
         <v>2010</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C138">
         <v>1990</v>
       </c>
       <c r="D138">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C139">
         <v>2000</v>
       </c>
       <c r="D139">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C140">
         <v>2005</v>
       </c>
       <c r="D140">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C141">
         <v>2010</v>
       </c>
       <c r="D141">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -53372,13 +53372,13 @@
         <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C142">
         <v>1990</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -53386,13 +53386,13 @@
         <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C143">
         <v>2000</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -53400,13 +53400,13 @@
         <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C144">
         <v>2005</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -53414,13 +53414,13 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C145">
         <v>2010</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -53428,13 +53428,13 @@
         <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C146">
         <v>1990</v>
       </c>
       <c r="D146">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -53442,13 +53442,13 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C147">
         <v>2000</v>
       </c>
       <c r="D147">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -53456,13 +53456,13 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C148">
         <v>2005</v>
       </c>
       <c r="D148">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -53470,13 +53470,13 @@
         <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C149">
         <v>2010</v>
       </c>
       <c r="D149">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -53484,7 +53484,7 @@
         <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C150">
         <v>1990</v>
@@ -53498,7 +53498,7 @@
         <v>39</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C151">
         <v>2000</v>
@@ -53512,7 +53512,7 @@
         <v>39</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C152">
         <v>2005</v>
@@ -53526,7 +53526,7 @@
         <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C153">
         <v>2010</v>
@@ -53540,7 +53540,7 @@
         <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C154">
         <v>1990</v>
@@ -53554,7 +53554,7 @@
         <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C155">
         <v>2000</v>
@@ -53568,7 +53568,7 @@
         <v>39</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C156">
         <v>2005</v>
@@ -53582,7 +53582,7 @@
         <v>39</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C157">
         <v>2010</v>
@@ -53596,13 +53596,13 @@
         <v>39</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C158">
         <v>1990</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -53610,13 +53610,13 @@
         <v>39</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C159">
         <v>2000</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -53624,13 +53624,13 @@
         <v>39</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C160">
         <v>2005</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -53638,13 +53638,13 @@
         <v>39</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C161">
         <v>2010</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -53652,13 +53652,13 @@
         <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C162">
         <v>1990</v>
       </c>
       <c r="D162">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -53666,13 +53666,13 @@
         <v>39</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C163">
         <v>2000</v>
       </c>
       <c r="D163">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -53680,13 +53680,13 @@
         <v>39</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C164">
         <v>2005</v>
       </c>
       <c r="D164">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -53694,13 +53694,13 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C165">
         <v>2010</v>
       </c>
       <c r="D165">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -53708,13 +53708,13 @@
         <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C166">
         <v>1990</v>
       </c>
       <c r="D166">
-        <v>288</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -53722,13 +53722,13 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C167">
         <v>2000</v>
       </c>
       <c r="D167">
-        <v>288</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -53736,13 +53736,13 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C168">
         <v>2005</v>
       </c>
       <c r="D168">
-        <v>288</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -53750,13 +53750,13 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C169">
         <v>2010</v>
       </c>
       <c r="D169">
-        <v>288</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -53764,13 +53764,13 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C170">
         <v>1990</v>
       </c>
       <c r="D170">
-        <v>1759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -53778,13 +53778,13 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C171">
         <v>2000</v>
       </c>
       <c r="D171">
-        <v>1653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -53792,13 +53792,13 @@
         <v>39</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C172">
         <v>2005</v>
       </c>
       <c r="D172">
-        <v>1598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -53806,13 +53806,13 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C173">
         <v>2010</v>
       </c>
       <c r="D173">
-        <v>1553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -53820,13 +53820,13 @@
         <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C174">
         <v>1990</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>8953.1986862704143</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -53834,13 +53834,13 @@
         <v>39</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C175">
         <v>2000</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>8693.896064830973</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -53848,13 +53848,13 @@
         <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C176">
         <v>2005</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>8682.0095270060738</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -53862,13 +53862,13 @@
         <v>39</v>
       </c>
       <c r="B177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C177">
         <v>2010</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>8670.1229891811745</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -53876,13 +53876,13 @@
         <v>39</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C178">
         <v>1990</v>
       </c>
       <c r="D178">
-        <v>8953.1986862704143</v>
+        <v>6322.8013137295866</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -53890,13 +53890,13 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C179">
         <v>2000</v>
       </c>
       <c r="D179">
-        <v>8693.896064830973</v>
+        <v>5404.1039351690279</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -53904,13 +53904,13 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C180">
         <v>2005</v>
       </c>
       <c r="D180">
-        <v>8682.0095270060738</v>
+        <v>5361.9904729939262</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -53918,13 +53918,13 @@
         <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C181">
         <v>2010</v>
       </c>
       <c r="D181">
-        <v>8670.1229891811745</v>
+        <v>5319.8770108188246</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -53932,13 +53932,13 @@
         <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C182">
         <v>1990</v>
       </c>
       <c r="D182">
-        <v>6322.8013137295866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -53946,13 +53946,13 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C183">
         <v>2000</v>
       </c>
       <c r="D183">
-        <v>5404.1039351690279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -53960,13 +53960,13 @@
         <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C184">
         <v>2005</v>
       </c>
       <c r="D184">
-        <v>5361.9904729939262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -53974,69 +53974,69 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C185">
         <v>2010</v>
       </c>
       <c r="D185">
-        <v>5319.8770108188246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C186">
         <v>1990</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>351.80164891376302</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C187">
         <v>2000</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>351.80164891376302</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C188">
         <v>2005</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>351.80164891376302</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B189" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C189">
         <v>2010</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>351.80164891376302</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -54044,13 +54044,13 @@
         <v>52</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C190">
         <v>1990</v>
       </c>
       <c r="D190">
-        <v>351.80164891376302</v>
+        <v>9853.1895979402198</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -54058,13 +54058,13 @@
         <v>52</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C191">
         <v>2000</v>
       </c>
       <c r="D191">
-        <v>351.80164891376302</v>
+        <v>9853.1895979402198</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -54072,13 +54072,13 @@
         <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C192">
         <v>2005</v>
       </c>
       <c r="D192">
-        <v>351.80164891376302</v>
+        <v>9853.1895979402198</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -54086,13 +54086,13 @@
         <v>52</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C193">
         <v>2010</v>
       </c>
       <c r="D193">
-        <v>351.80164891376302</v>
+        <v>9853.1895979402198</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -54100,13 +54100,13 @@
         <v>52</v>
       </c>
       <c r="B194" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C194">
         <v>1990</v>
       </c>
       <c r="D194">
-        <v>9853.1895979402198</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -54114,13 +54114,13 @@
         <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C195">
         <v>2000</v>
       </c>
       <c r="D195">
-        <v>9853.1895979402198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -54128,13 +54128,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C196">
         <v>2005</v>
       </c>
       <c r="D196">
-        <v>9853.1895979402198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -54142,69 +54142,69 @@
         <v>52</v>
       </c>
       <c r="B197" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C197">
         <v>2010</v>
       </c>
       <c r="D197">
-        <v>9853.1895979402198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B198" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C198">
         <v>1990</v>
       </c>
       <c r="D198">
-        <v>257</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C199">
         <v>2000</v>
       </c>
       <c r="D199">
-        <v>197</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B200" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C200">
         <v>2005</v>
       </c>
       <c r="D200">
-        <v>167</v>
+        <v>275</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B201" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C201">
         <v>2010</v>
       </c>
       <c r="D201">
-        <v>167</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -54212,13 +54212,13 @@
         <v>57</v>
       </c>
       <c r="B202" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C202">
         <v>1990</v>
       </c>
       <c r="D202">
-        <v>313</v>
+        <v>766</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -54226,13 +54226,13 @@
         <v>57</v>
       </c>
       <c r="B203" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C203">
         <v>2000</v>
       </c>
       <c r="D203">
-        <v>288</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -54240,13 +54240,13 @@
         <v>57</v>
       </c>
       <c r="B204" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C204">
         <v>2005</v>
       </c>
       <c r="D204">
-        <v>275</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -54254,13 +54254,13 @@
         <v>57</v>
       </c>
       <c r="B205" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C205">
         <v>2010</v>
       </c>
       <c r="D205">
-        <v>263</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -54268,13 +54268,13 @@
         <v>57</v>
       </c>
       <c r="B206" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C206">
         <v>1990</v>
       </c>
       <c r="D206">
-        <v>766</v>
+        <v>1008.8531052497013</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -54282,13 +54282,13 @@
         <v>57</v>
       </c>
       <c r="B207" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C207">
         <v>2000</v>
       </c>
       <c r="D207">
-        <v>456</v>
+        <v>1007.6403331843144</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -54296,13 +54296,13 @@
         <v>57</v>
       </c>
       <c r="B208" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C208">
         <v>2005</v>
       </c>
       <c r="D208">
-        <v>322</v>
+        <v>1007.6403331843144</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -54310,13 +54310,13 @@
         <v>57</v>
       </c>
       <c r="B209" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C209">
         <v>2010</v>
       </c>
       <c r="D209">
-        <v>322</v>
+        <v>1007.6403331843144</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -54324,13 +54324,13 @@
         <v>57</v>
       </c>
       <c r="B210" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C210">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D210">
-        <v>1008.8531052497013</v>
+        <v>49270</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -54338,13 +54338,13 @@
         <v>57</v>
       </c>
       <c r="B211" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C211">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D211">
-        <v>1007.6403331843144</v>
+        <v>47750</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -54352,13 +54352,13 @@
         <v>57</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C212">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D212">
-        <v>1007.6403331843144</v>
+        <v>47236</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -54366,13 +54366,13 @@
         <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C213">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D213">
-        <v>1007.6403331843144</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -54380,13 +54380,13 @@
         <v>57</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C214">
         <v>2000</v>
       </c>
       <c r="D214">
-        <v>49270</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -54394,13 +54394,13 @@
         <v>57</v>
       </c>
       <c r="B215" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C215">
         <v>2005</v>
       </c>
       <c r="D215">
-        <v>47750</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -54408,13 +54408,13 @@
         <v>57</v>
       </c>
       <c r="B216" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216">
-        <v>47236</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -54422,13 +54422,13 @@
         <v>57</v>
       </c>
       <c r="B217" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C217">
         <v>1990</v>
       </c>
       <c r="D217">
-        <v>1490</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -54436,13 +54436,13 @@
         <v>57</v>
       </c>
       <c r="B218" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C218">
         <v>2000</v>
       </c>
       <c r="D218">
-        <v>1490</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -54450,13 +54450,13 @@
         <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C219">
         <v>2005</v>
       </c>
       <c r="D219">
-        <v>1490</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -54464,13 +54464,13 @@
         <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C220">
         <v>2010</v>
       </c>
       <c r="D220">
-        <v>1490</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -54478,13 +54478,13 @@
         <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C221">
         <v>1990</v>
       </c>
       <c r="D221">
-        <v>3820</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -54492,13 +54492,13 @@
         <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C222">
         <v>2000</v>
       </c>
       <c r="D222">
-        <v>3820</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -54506,13 +54506,13 @@
         <v>57</v>
       </c>
       <c r="B223" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C223">
         <v>2005</v>
       </c>
       <c r="D223">
-        <v>3820</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -54520,13 +54520,13 @@
         <v>57</v>
       </c>
       <c r="B224" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C224">
         <v>2010</v>
       </c>
       <c r="D224">
-        <v>3820</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -54534,13 +54534,13 @@
         <v>57</v>
       </c>
       <c r="B225" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C225">
         <v>1990</v>
       </c>
       <c r="D225">
-        <v>3192</v>
+        <v>861</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -54548,13 +54548,13 @@
         <v>57</v>
       </c>
       <c r="B226" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C226">
         <v>2000</v>
       </c>
       <c r="D226">
-        <v>3192</v>
+        <v>861</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -54562,13 +54562,13 @@
         <v>57</v>
       </c>
       <c r="B227" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C227">
         <v>2005</v>
       </c>
       <c r="D227">
-        <v>3192</v>
+        <v>861</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -54576,13 +54576,13 @@
         <v>57</v>
       </c>
       <c r="B228" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C228">
         <v>2010</v>
       </c>
       <c r="D228">
-        <v>3192</v>
+        <v>861</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -54590,13 +54590,13 @@
         <v>57</v>
       </c>
       <c r="B229" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C229">
         <v>1990</v>
       </c>
       <c r="D229">
-        <v>861</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -54604,13 +54604,13 @@
         <v>57</v>
       </c>
       <c r="B230" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C230">
         <v>2000</v>
       </c>
       <c r="D230">
-        <v>861</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -54618,13 +54618,13 @@
         <v>57</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C231">
         <v>2005</v>
       </c>
       <c r="D231">
-        <v>861</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -54632,13 +54632,13 @@
         <v>57</v>
       </c>
       <c r="B232" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C232">
         <v>2010</v>
       </c>
       <c r="D232">
-        <v>861</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -54646,13 +54646,13 @@
         <v>57</v>
       </c>
       <c r="B233" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C233">
         <v>1990</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -54660,13 +54660,13 @@
         <v>57</v>
       </c>
       <c r="B234" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C234">
         <v>2000</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -54674,13 +54674,13 @@
         <v>57</v>
       </c>
       <c r="B235" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C235">
         <v>2005</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -54688,13 +54688,13 @@
         <v>57</v>
       </c>
       <c r="B236" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C236">
         <v>2010</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -54702,13 +54702,13 @@
         <v>57</v>
       </c>
       <c r="B237" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C237">
         <v>1990</v>
       </c>
       <c r="D237">
-        <v>6726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -54716,13 +54716,13 @@
         <v>57</v>
       </c>
       <c r="B238" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C238">
         <v>2000</v>
       </c>
       <c r="D238">
-        <v>6726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -54730,13 +54730,13 @@
         <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C239">
         <v>2005</v>
       </c>
       <c r="D239">
-        <v>6726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -54744,13 +54744,13 @@
         <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C240">
         <v>2010</v>
       </c>
       <c r="D240">
-        <v>6726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -54758,13 +54758,13 @@
         <v>57</v>
       </c>
       <c r="B241" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C241">
         <v>1990</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -54772,13 +54772,13 @@
         <v>57</v>
       </c>
       <c r="B242" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C242">
         <v>2000</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -54786,13 +54786,13 @@
         <v>57</v>
       </c>
       <c r="B243" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C243">
         <v>2005</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -54800,69 +54800,69 @@
         <v>57</v>
       </c>
       <c r="B244" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C244">
         <v>2010</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B245" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C245">
         <v>1990</v>
       </c>
       <c r="D245">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B246" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C246">
         <v>2000</v>
       </c>
       <c r="D246">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B247" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C247">
         <v>2005</v>
       </c>
       <c r="D247">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B248" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C248">
         <v>2010</v>
       </c>
       <c r="D248">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -54870,7 +54870,7 @@
         <v>72</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C249">
         <v>1990</v>
@@ -54884,7 +54884,7 @@
         <v>72</v>
       </c>
       <c r="B250" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C250">
         <v>2000</v>
@@ -54898,7 +54898,7 @@
         <v>72</v>
       </c>
       <c r="B251" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C251">
         <v>2005</v>
@@ -54912,7 +54912,7 @@
         <v>72</v>
       </c>
       <c r="B252" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C252">
         <v>2010</v>
@@ -54926,13 +54926,13 @@
         <v>72</v>
       </c>
       <c r="B253" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C253">
         <v>1990</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -54940,13 +54940,13 @@
         <v>72</v>
       </c>
       <c r="B254" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C254">
         <v>2000</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -54954,13 +54954,13 @@
         <v>72</v>
       </c>
       <c r="B255" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C255">
         <v>2005</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -54968,13 +54968,13 @@
         <v>72</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C256">
         <v>2010</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -54982,13 +54982,13 @@
         <v>72</v>
       </c>
       <c r="B257" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C257">
         <v>1990</v>
       </c>
       <c r="D257">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -54996,13 +54996,13 @@
         <v>72</v>
       </c>
       <c r="B258" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C258">
         <v>2000</v>
       </c>
       <c r="D258">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -55010,13 +55010,13 @@
         <v>72</v>
       </c>
       <c r="B259" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C259">
         <v>2005</v>
       </c>
       <c r="D259">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -55024,13 +55024,13 @@
         <v>72</v>
       </c>
       <c r="B260" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C260">
         <v>2010</v>
       </c>
       <c r="D260">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -55038,13 +55038,13 @@
         <v>72</v>
       </c>
       <c r="B261" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C261">
         <v>1990</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -55052,13 +55052,13 @@
         <v>72</v>
       </c>
       <c r="B262" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C262">
         <v>2000</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -55066,13 +55066,13 @@
         <v>72</v>
       </c>
       <c r="B263" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C263">
         <v>2005</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -55080,13 +55080,13 @@
         <v>72</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C264">
         <v>2010</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -55094,13 +55094,13 @@
         <v>72</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C265">
         <v>1990</v>
       </c>
       <c r="D265">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -55108,13 +55108,13 @@
         <v>72</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C266">
         <v>2000</v>
       </c>
       <c r="D266">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -55122,13 +55122,13 @@
         <v>72</v>
       </c>
       <c r="B267" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C267">
         <v>2005</v>
       </c>
       <c r="D267">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -55136,13 +55136,13 @@
         <v>72</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C268">
         <v>2010</v>
       </c>
       <c r="D268">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -55150,13 +55150,13 @@
         <v>72</v>
       </c>
       <c r="B269" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C269">
         <v>1990</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -55164,13 +55164,13 @@
         <v>72</v>
       </c>
       <c r="B270" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C270">
         <v>2000</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -55178,13 +55178,13 @@
         <v>72</v>
       </c>
       <c r="B271" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C271">
         <v>2005</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -55192,13 +55192,13 @@
         <v>72</v>
       </c>
       <c r="B272" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C272">
         <v>2010</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -55206,13 +55206,13 @@
         <v>72</v>
       </c>
       <c r="B273" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C273">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -55220,13 +55220,13 @@
         <v>72</v>
       </c>
       <c r="B274" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C274">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -55234,13 +55234,13 @@
         <v>72</v>
       </c>
       <c r="B275" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C275">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D275">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -55248,13 +55248,13 @@
         <v>72</v>
       </c>
       <c r="B276" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C276">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D276">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -55262,13 +55262,13 @@
         <v>72</v>
       </c>
       <c r="B277" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C277">
         <v>2000</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -55276,13 +55276,13 @@
         <v>72</v>
       </c>
       <c r="B278" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C278">
         <v>2005</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -55290,69 +55290,69 @@
         <v>72</v>
       </c>
       <c r="B279" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C279">
         <v>2010</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B280" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C280">
         <v>1990</v>
       </c>
       <c r="D280">
-        <v>62</v>
+        <v>599</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B281" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C281">
         <v>2000</v>
       </c>
       <c r="D281">
-        <v>62</v>
+        <v>599</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B282" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C282">
         <v>2005</v>
       </c>
       <c r="D282">
-        <v>62</v>
+        <v>599</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B283" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C283">
         <v>2010</v>
       </c>
       <c r="D283">
-        <v>62</v>
+        <v>599</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -55360,13 +55360,13 @@
         <v>85</v>
       </c>
       <c r="B284" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C284">
         <v>1990</v>
       </c>
       <c r="D284">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -55374,13 +55374,13 @@
         <v>85</v>
       </c>
       <c r="B285" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C285">
         <v>2000</v>
       </c>
       <c r="D285">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -55388,13 +55388,13 @@
         <v>85</v>
       </c>
       <c r="B286" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C286">
         <v>2005</v>
       </c>
       <c r="D286">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -55402,13 +55402,13 @@
         <v>85</v>
       </c>
       <c r="B287" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C287">
         <v>2010</v>
       </c>
       <c r="D287">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -55416,13 +55416,13 @@
         <v>85</v>
       </c>
       <c r="B288" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C288">
         <v>1990</v>
       </c>
       <c r="D288">
-        <v>623</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -55430,13 +55430,13 @@
         <v>85</v>
       </c>
       <c r="B289" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C289">
         <v>2000</v>
       </c>
       <c r="D289">
-        <v>623</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -55444,13 +55444,13 @@
         <v>85</v>
       </c>
       <c r="B290" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C290">
         <v>2005</v>
       </c>
       <c r="D290">
-        <v>623</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -55458,13 +55458,13 @@
         <v>85</v>
       </c>
       <c r="B291" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C291">
         <v>2010</v>
       </c>
       <c r="D291">
-        <v>623</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -55472,13 +55472,13 @@
         <v>85</v>
       </c>
       <c r="B292" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C292">
         <v>1990</v>
       </c>
       <c r="D292">
-        <v>5</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -55486,13 +55486,13 @@
         <v>85</v>
       </c>
       <c r="B293" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C293">
         <v>2000</v>
       </c>
       <c r="D293">
-        <v>5</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -55500,13 +55500,13 @@
         <v>85</v>
       </c>
       <c r="B294" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C294">
         <v>2005</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -55514,13 +55514,13 @@
         <v>85</v>
       </c>
       <c r="B295" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C295">
         <v>2010</v>
       </c>
       <c r="D295">
-        <v>5</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -55528,13 +55528,13 @@
         <v>85</v>
       </c>
       <c r="B296" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C296">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="D296">
-        <v>2359</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -55542,13 +55542,13 @@
         <v>85</v>
       </c>
       <c r="B297" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C297">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D297">
-        <v>2091</v>
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -55556,13 +55556,13 @@
         <v>85</v>
       </c>
       <c r="B298" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C298">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D298">
-        <v>1957</v>
+        <v>23716.772782143616</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -55570,13 +55570,13 @@
         <v>85</v>
       </c>
       <c r="B299" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C299">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D299">
-        <v>1619</v>
+        <v>21300.775190161345</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -55584,13 +55584,13 @@
         <v>85</v>
       </c>
       <c r="B300" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C300">
         <v>2005</v>
       </c>
       <c r="D300">
-        <v>457</v>
+        <v>20737.462801078727</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -55598,13 +55598,13 @@
         <v>85</v>
       </c>
       <c r="B301" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C301">
         <v>2010</v>
       </c>
       <c r="D301">
-        <v>457</v>
+        <v>20604.742078277814</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -55612,13 +55612,13 @@
         <v>85</v>
       </c>
       <c r="B302" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C302">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="D302">
-        <v>23716.772782143616</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -55626,13 +55626,13 @@
         <v>85</v>
       </c>
       <c r="B303" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C303">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D303">
-        <v>21300.775190161345</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -55640,13 +55640,13 @@
         <v>85</v>
       </c>
       <c r="B304" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C304">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D304">
-        <v>20737.462801078727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -55654,13 +55654,13 @@
         <v>85</v>
       </c>
       <c r="B305" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C305">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D305">
-        <v>20604.742078277814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -55668,13 +55668,13 @@
         <v>85</v>
       </c>
       <c r="B306" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C306">
         <v>2005</v>
       </c>
       <c r="D306">
-        <v>1315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -55682,69 +55682,69 @@
         <v>85</v>
       </c>
       <c r="B307" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C307">
         <v>2010</v>
       </c>
       <c r="D307">
-        <v>1179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B308" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C308">
         <v>1990</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>40804</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B309" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C309">
         <v>2000</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>39046</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B310" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C310">
         <v>2005</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>38164</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B311" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C311">
         <v>2010</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>37164</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -55752,13 +55752,13 @@
         <v>94</v>
       </c>
       <c r="B312" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C312">
         <v>1990</v>
       </c>
       <c r="D312">
-        <v>40804</v>
+        <v>516352.15200337215</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -55766,13 +55766,13 @@
         <v>94</v>
       </c>
       <c r="B313" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C313">
         <v>2000</v>
       </c>
       <c r="D313">
-        <v>39046</v>
+        <v>488904.82212525362</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -55780,13 +55780,13 @@
         <v>94</v>
       </c>
       <c r="B314" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C314">
         <v>2005</v>
       </c>
       <c r="D314">
-        <v>38164</v>
+        <v>475555.12872333167</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -55794,13 +55794,13 @@
         <v>94</v>
       </c>
       <c r="B315" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C315">
         <v>2010</v>
       </c>
       <c r="D315">
-        <v>37164</v>
+        <v>464188.9678847302</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -55808,13 +55808,13 @@
         <v>94</v>
       </c>
       <c r="B316" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C316">
         <v>1990</v>
       </c>
       <c r="D316">
-        <v>516352.15200337215</v>
+        <v>8828</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -55822,13 +55822,13 @@
         <v>94</v>
       </c>
       <c r="B317" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C317">
         <v>2000</v>
       </c>
       <c r="D317">
-        <v>488904.82212525362</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -55836,13 +55836,13 @@
         <v>94</v>
       </c>
       <c r="B318" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C318">
         <v>2005</v>
       </c>
       <c r="D318">
-        <v>475555.12872333167</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -55850,13 +55850,13 @@
         <v>94</v>
       </c>
       <c r="B319" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C319">
         <v>2010</v>
       </c>
       <c r="D319">
-        <v>464188.9678847302</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -55864,13 +55864,13 @@
         <v>94</v>
       </c>
       <c r="B320" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C320">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D320">
-        <v>8828</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -55878,13 +55878,13 @@
         <v>94</v>
       </c>
       <c r="B321" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C321">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D321">
-        <v>8685</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -55892,13 +55892,13 @@
         <v>94</v>
       </c>
       <c r="B322" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C322">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D322">
-        <v>8614</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -55906,13 +55906,13 @@
         <v>94</v>
       </c>
       <c r="B323" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C323">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D323">
-        <v>8543</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -55920,13 +55920,13 @@
         <v>94</v>
       </c>
       <c r="B324" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C324">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D324">
-        <v>4682</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -55934,13 +55934,13 @@
         <v>94</v>
       </c>
       <c r="B325" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C325">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D325">
-        <v>4743</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -55948,13 +55948,13 @@
         <v>94</v>
       </c>
       <c r="B326" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C326">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D326">
-        <v>4805</v>
+        <v>62910</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -55962,13 +55962,13 @@
         <v>94</v>
       </c>
       <c r="B327" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C327">
         <v>2000</v>
       </c>
       <c r="D327">
-        <v>6790</v>
+        <v>62188</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -55976,13 +55976,13 @@
         <v>94</v>
       </c>
       <c r="B328" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C328">
         <v>2005</v>
       </c>
       <c r="D328">
-        <v>6790</v>
+        <v>61065</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -55990,13 +55990,13 @@
         <v>94</v>
       </c>
       <c r="B329" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C329">
         <v>2010</v>
       </c>
       <c r="D329">
-        <v>6790</v>
+        <v>60178</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -56004,13 +56004,13 @@
         <v>94</v>
       </c>
       <c r="B330" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C330">
         <v>1990</v>
       </c>
       <c r="D330">
-        <v>62910</v>
+        <v>14208</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -56018,13 +56018,13 @@
         <v>94</v>
       </c>
       <c r="B331" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C331">
         <v>2000</v>
       </c>
       <c r="D331">
-        <v>62188</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -56032,13 +56032,13 @@
         <v>94</v>
       </c>
       <c r="B332" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C332">
         <v>2005</v>
       </c>
       <c r="D332">
-        <v>61065</v>
+        <v>14093</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -56046,69 +56046,69 @@
         <v>94</v>
       </c>
       <c r="B333" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C333">
         <v>2010</v>
       </c>
       <c r="D333">
-        <v>60178</v>
+        <v>14001</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B334" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C334">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="D334">
-        <v>14208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B335" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C335">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D335">
-        <v>14137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B336" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C336">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D336">
-        <v>14093</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B337" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C337">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D337">
-        <v>14001</v>
+        <v>445</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -56116,13 +56116,13 @@
         <v>103</v>
       </c>
       <c r="B338" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C338">
         <v>2005</v>
       </c>
       <c r="D338">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -56130,13 +56130,13 @@
         <v>103</v>
       </c>
       <c r="B339" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C339">
         <v>2010</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>449</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -56144,13 +56144,13 @@
         <v>103</v>
       </c>
       <c r="B340" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C340">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="D340">
-        <v>490</v>
+        <v>40</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -56158,13 +56158,13 @@
         <v>103</v>
       </c>
       <c r="B341" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C341">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D341">
-        <v>445</v>
+        <v>40</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -56172,13 +56172,13 @@
         <v>103</v>
       </c>
       <c r="B342" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C342">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D342">
-        <v>448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -56186,13 +56186,13 @@
         <v>103</v>
       </c>
       <c r="B343" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C343">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D343">
-        <v>449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -56200,13 +56200,13 @@
         <v>103</v>
       </c>
       <c r="B344" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C344">
         <v>2005</v>
       </c>
       <c r="D344">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -56214,13 +56214,13 @@
         <v>103</v>
       </c>
       <c r="B345" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C345">
         <v>2010</v>
       </c>
       <c r="D345">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -56228,13 +56228,13 @@
         <v>103</v>
       </c>
       <c r="B346" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C346">
         <v>1990</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -56242,13 +56242,13 @@
         <v>103</v>
       </c>
       <c r="B347" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C347">
         <v>2000</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -56256,13 +56256,13 @@
         <v>103</v>
       </c>
       <c r="B348" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C348">
         <v>2005</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -56270,13 +56270,13 @@
         <v>103</v>
       </c>
       <c r="B349" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C349">
         <v>2010</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -56284,13 +56284,13 @@
         <v>103</v>
       </c>
       <c r="B350" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C350">
         <v>1990</v>
       </c>
       <c r="D350">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -56298,13 +56298,13 @@
         <v>103</v>
       </c>
       <c r="B351" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C351">
         <v>2000</v>
       </c>
       <c r="D351">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -56312,13 +56312,13 @@
         <v>103</v>
       </c>
       <c r="B352" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C352">
         <v>2005</v>
       </c>
       <c r="D352">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -56326,13 +56326,13 @@
         <v>103</v>
       </c>
       <c r="B353" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C353">
         <v>2010</v>
       </c>
       <c r="D353">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -56340,13 +56340,13 @@
         <v>103</v>
       </c>
       <c r="B354" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C354">
         <v>1990</v>
       </c>
       <c r="D354">
-        <v>40</v>
+        <v>431</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -56354,13 +56354,13 @@
         <v>103</v>
       </c>
       <c r="B355" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C355">
         <v>2000</v>
       </c>
       <c r="D355">
-        <v>44</v>
+        <v>431</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -56368,13 +56368,13 @@
         <v>103</v>
       </c>
       <c r="B356" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C356">
         <v>2005</v>
       </c>
       <c r="D356">
-        <v>46</v>
+        <v>431</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -56382,13 +56382,13 @@
         <v>103</v>
       </c>
       <c r="B357" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C357">
         <v>2010</v>
       </c>
       <c r="D357">
-        <v>48</v>
+        <v>431</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -56396,13 +56396,13 @@
         <v>103</v>
       </c>
       <c r="B358" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C358">
         <v>1990</v>
       </c>
       <c r="D358">
-        <v>431</v>
+        <v>31329</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -56410,13 +56410,13 @@
         <v>103</v>
       </c>
       <c r="B359" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C359">
         <v>2000</v>
       </c>
       <c r="D359">
-        <v>431</v>
+        <v>29534</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -56424,13 +56424,13 @@
         <v>103</v>
       </c>
       <c r="B360" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C360">
         <v>2005</v>
       </c>
       <c r="D360">
-        <v>431</v>
+        <v>28344</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -56438,13 +56438,13 @@
         <v>103</v>
       </c>
       <c r="B361" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C361">
         <v>2010</v>
       </c>
       <c r="D361">
-        <v>431</v>
+        <v>26210</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -56452,13 +56452,13 @@
         <v>103</v>
       </c>
       <c r="B362" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C362">
-        <v>1990</v>
-      </c>
-      <c r="D362">
-        <v>31329</v>
+        <v>2000</v>
+      </c>
+      <c r="D362" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -56466,13 +56466,13 @@
         <v>103</v>
       </c>
       <c r="B363" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C363">
-        <v>2000</v>
-      </c>
-      <c r="D363">
-        <v>29534</v>
+        <v>2005</v>
+      </c>
+      <c r="D363" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -56480,13 +56480,13 @@
         <v>103</v>
       </c>
       <c r="B364" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C364">
-        <v>2005</v>
-      </c>
-      <c r="D364">
-        <v>28344</v>
+        <v>2010</v>
+      </c>
+      <c r="D364" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -56494,13 +56494,13 @@
         <v>103</v>
       </c>
       <c r="B365" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C365">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D365">
-        <v>26210</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -56508,13 +56508,13 @@
         <v>103</v>
       </c>
       <c r="B366" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C366">
         <v>2000</v>
       </c>
-      <c r="D366" t="s">
-        <v>227</v>
+      <c r="D366">
+        <v>1105</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -56522,13 +56522,13 @@
         <v>103</v>
       </c>
       <c r="B367" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C367">
         <v>2005</v>
       </c>
-      <c r="D367" t="s">
-        <v>227</v>
+      <c r="D367">
+        <v>1105</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -56536,13 +56536,13 @@
         <v>103</v>
       </c>
       <c r="B368" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C368">
         <v>2010</v>
       </c>
-      <c r="D368" t="s">
-        <v>227</v>
+      <c r="D368">
+        <v>1105</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -56550,13 +56550,13 @@
         <v>103</v>
       </c>
       <c r="B369" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C369">
         <v>1990</v>
       </c>
       <c r="D369">
-        <v>1105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -56564,13 +56564,13 @@
         <v>103</v>
       </c>
       <c r="B370" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C370">
         <v>2000</v>
       </c>
       <c r="D370">
-        <v>1105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -56578,13 +56578,13 @@
         <v>103</v>
       </c>
       <c r="B371" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C371">
         <v>2005</v>
       </c>
       <c r="D371">
-        <v>1105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -56592,125 +56592,13 @@
         <v>103</v>
       </c>
       <c r="B372" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C372">
         <v>2010</v>
       </c>
       <c r="D372">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>103</v>
-      </c>
-      <c r="B373" t="s">
-        <v>115</v>
-      </c>
-      <c r="C373">
-        <v>1990</v>
-      </c>
-      <c r="D373">
         <v>4</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>103</v>
-      </c>
-      <c r="B374" t="s">
-        <v>115</v>
-      </c>
-      <c r="C374">
-        <v>2000</v>
-      </c>
-      <c r="D374">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>103</v>
-      </c>
-      <c r="B375" t="s">
-        <v>115</v>
-      </c>
-      <c r="C375">
-        <v>2005</v>
-      </c>
-      <c r="D375">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>103</v>
-      </c>
-      <c r="B376" t="s">
-        <v>115</v>
-      </c>
-      <c r="C376">
-        <v>2010</v>
-      </c>
-      <c r="D376">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>103</v>
-      </c>
-      <c r="B377" t="s">
-        <v>117</v>
-      </c>
-      <c r="C377">
-        <v>1990</v>
-      </c>
-      <c r="D377">
-        <v>73.737006572413165</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>103</v>
-      </c>
-      <c r="B378" t="s">
-        <v>117</v>
-      </c>
-      <c r="C378">
-        <v>2000</v>
-      </c>
-      <c r="D378">
-        <v>76.790591097232436</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>103</v>
-      </c>
-      <c r="B379" t="s">
-        <v>117</v>
-      </c>
-      <c r="C379">
-        <v>2005</v>
-      </c>
-      <c r="D379">
-        <v>78.051854270527357</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>103</v>
-      </c>
-      <c r="B380" t="s">
-        <v>117</v>
-      </c>
-      <c r="C380">
-        <v>2010</v>
-      </c>
-      <c r="D380">
-        <v>79.318385878130115</v>
       </c>
     </row>
   </sheetData>
@@ -62804,7 +62692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
